--- a/Documentation/08 - Project Management/Tidsregistrering/TidsRegistrering PTE-Projektet Dennis Rosenkilde.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/TidsRegistrering PTE-Projektet Dennis Rosenkilde.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,10 +23,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>Rolle</t>
+  </si>
+  <si>
+    <t>Aktivitet</t>
+  </si>
+  <si>
+    <t>StartTid</t>
+  </si>
+  <si>
+    <t>SlutTid</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Reviewed Test Suite til OC 7</t>
+  </si>
+  <si>
+    <t>Dato</t>
+  </si>
+  <si>
+    <t>Analyser</t>
+  </si>
+  <si>
+    <t>SSD til UC 8</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Tekniske problemer.</t>
+  </si>
+  <si>
+    <t>Reviewed Test Suite til OC 6</t>
+  </si>
+  <si>
+    <t>Git problemer.</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>NeedMoreInputTriangle implementeret</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,12 +431,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E4" s="3">
+        <v>42809</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E5" s="3">
+        <v>42809</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E6" s="3">
+        <v>42809</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/08 - Project Management/Tidsregistrering/TidsRegistrering PTE-Projektet Dennis Rosenkilde.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/TidsRegistrering PTE-Projektet Dennis Rosenkilde.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Rolle</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>NeedMoreInputTriangle implementeret</t>
+  </si>
+  <si>
+    <t>OC 8 skrevet</t>
+  </si>
+  <si>
+    <t>OC 9 Review</t>
+  </si>
+  <si>
+    <t>OC 15 Skrevet</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Design OC 10</t>
+  </si>
+  <si>
+    <t>Implementer Test Suite til SigmaRef</t>
   </si>
 </sst>
 </file>
@@ -431,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +560,91 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E7" s="3">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E11" s="3">
+        <v>42814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
